--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8188AC-D694-3347-A6B5-5F2EE6CF172A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D184F08F-6768-6447-A2CD-3C28B920F6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="460" windowWidth="18820" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnout observations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="91">
   <si>
     <t>Horse</t>
   </si>
@@ -278,13 +278,43 @@
   </si>
   <si>
     <t>Vox</t>
+  </si>
+  <si>
+    <t>white ring</t>
+  </si>
+  <si>
+    <t>12-12:30</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>5:30-6 p.m.</t>
+  </si>
+  <si>
+    <t>Leopold</t>
+  </si>
+  <si>
+    <t>1-1:30 p.m.</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>Patches</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>hunt field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +343,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +373,30 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -352,7 +413,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -360,6 +421,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
@@ -677,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +990,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
@@ -969,7 +1040,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -1016,7 +1087,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
@@ -1063,7 +1134,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
@@ -1107,7 +1178,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
@@ -1201,10 +1272,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
@@ -1351,7 +1422,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -1401,7 +1472,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1448,7 +1519,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1495,7 +1566,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1539,7 +1610,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
@@ -1586,7 +1657,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1636,7 +1707,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
@@ -1686,7 +1757,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -1733,7 +1804,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B22" t="s">
@@ -1786,7 +1857,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B23" t="s">
@@ -1830,10 +1901,10 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
@@ -1880,7 +1951,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B25" t="s">
@@ -1930,10 +2001,10 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
@@ -1977,10 +2048,10 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
@@ -2024,7 +2095,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2071,7 +2142,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
@@ -2115,10 +2186,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
@@ -2165,7 +2236,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B31" t="s">
@@ -2211,6 +2282,758 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44459</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44459</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44460</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44460</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44460</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>26</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44460</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44462</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>21</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44462</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44462</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44462</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>28</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>28</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44467</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44467</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44468</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44468</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>0</v>
       </c>
     </row>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D184F08F-6768-6447-A2CD-3C28B920F6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABD292-784E-424C-BFA0-D4C28F0AD3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnout observations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="102">
   <si>
     <t>Horse</t>
   </si>
@@ -308,6 +308,39 @@
   </si>
   <si>
     <t>hunt field</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vox </t>
+  </si>
+  <si>
+    <t>Roundpen</t>
+  </si>
+  <si>
+    <t>1:30-2.</t>
+  </si>
+  <si>
+    <t>1:30-3</t>
+  </si>
+  <si>
+    <t>2 - 2:30</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>1:30 - 2</t>
+  </si>
+  <si>
+    <t>Note: No observations between 9/30 and 10/7 due to weather conditions and limited turnout time</t>
+  </si>
+  <si>
+    <t>middle right</t>
+  </si>
+  <si>
+    <t>Francine</t>
   </si>
 </sst>
 </file>
@@ -748,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,6 +3067,585 @@
         <v>0</v>
       </c>
       <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>26</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>23</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53">
+        <v>28</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44476</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44480</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44480</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>26</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
         <v>0</v>
       </c>
     </row>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABD292-784E-424C-BFA0-D4C28F0AD3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04512F9-C0FB-5D4D-BA70-FA81F5564E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="107">
   <si>
     <t>Horse</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>Francine</t>
+  </si>
+  <si>
+    <t>2-2:30</t>
+  </si>
+  <si>
+    <t>Diablo</t>
+  </si>
+  <si>
+    <t>Clancey</t>
+  </si>
+  <si>
+    <t>Quin</t>
+  </si>
+  <si>
+    <t>12:30 - 1</t>
   </si>
 </sst>
 </file>
@@ -781,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,6 +3661,182 @@
         <v>1</v>
       </c>
       <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44481</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61">
+        <v>22</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44487</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>15</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
     </row>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04512F9-C0FB-5D4D-BA70-FA81F5564E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E2562-7811-AC49-8D11-79850431A980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="114">
   <si>
     <t>Horse</t>
   </si>
@@ -356,6 +356,27 @@
   </si>
   <si>
     <t>12:30 - 1</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Aloof</t>
   </si>
 </sst>
 </file>
@@ -796,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3837,6 +3858,194 @@
         <v>0</v>
       </c>
       <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44488</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44488</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44489</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66">
+        <v>23</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44489</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67">
+        <v>23</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
         <v>0</v>
       </c>
     </row>
@@ -3847,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A0AF7-557A-1341-8E7B-0B9753A962C9}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3896,15 +4105,105 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E2562-7811-AC49-8D11-79850431A980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA0042-50E1-B44B-BE08-8113EC2C2880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="121">
   <si>
     <t>Horse</t>
   </si>
@@ -377,6 +377,27 @@
   </si>
   <si>
     <t>Aloof</t>
+  </si>
+  <si>
+    <t>Ollie</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>3 - 3:30</t>
+  </si>
+  <si>
+    <t>Falco</t>
+  </si>
+  <si>
+    <t>Cheers</t>
+  </si>
+  <si>
+    <t>Pretzel</t>
   </si>
 </sst>
 </file>
@@ -817,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,6 +4067,490 @@
         <v>2</v>
       </c>
       <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68">
+        <v>21</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69">
+        <v>21</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71">
+        <v>26</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44496</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44497</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44497</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77">
+        <v>22</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78">
+        <v>24</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
     </row>
@@ -4056,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A0AF7-557A-1341-8E7B-0B9753A962C9}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4206,6 +4711,16 @@
         <v>64</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA0042-50E1-B44B-BE08-8113EC2C2880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AAFE0E-8035-A549-AF3E-96001225766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
+    <workbookView xWindow="13460" yWindow="460" windowWidth="15340" windowHeight="15820" activeTab="1" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnout observations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="125">
   <si>
     <t>Horse</t>
   </si>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>Pretzel</t>
+  </si>
+  <si>
+    <t>Personality types:</t>
+  </si>
+  <si>
+    <t>Fearful</t>
+  </si>
+  <si>
+    <t>Challenging</t>
+  </si>
+  <si>
+    <t>Aggressive</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
@@ -4561,15 +4573,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A0AF7-557A-1341-8E7B-0B9753A962C9}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4597,49 +4609,232 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
       <c r="D9" t="s">
         <v>109</v>
       </c>
@@ -4662,7 +4857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4691,34 +4886,178 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AAFE0E-8035-A549-AF3E-96001225766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525023B7-B7F8-1B4C-9A60-5644E3B8E4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="460" windowWidth="15340" windowHeight="15820" activeTab="1" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnout observations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="134">
   <si>
     <t>Horse</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Pretzel</t>
   </si>
   <si>
-    <t>Personality types:</t>
-  </si>
-  <si>
     <t>Fearful</t>
   </si>
   <si>
@@ -410,6 +407,36 @@
   </si>
   <si>
     <t>Aggressive</t>
+  </si>
+  <si>
+    <t>Personality Type</t>
+  </si>
+  <si>
+    <t>Social - Passive</t>
+  </si>
+  <si>
+    <t>Aloof - Aggressive</t>
+  </si>
+  <si>
+    <t>Fearful - Passive</t>
+  </si>
+  <si>
+    <t>Social - Aggressive</t>
+  </si>
+  <si>
+    <t>Aloof - Passive</t>
+  </si>
+  <si>
+    <t>Challenging - Passive</t>
+  </si>
+  <si>
+    <t>Challenging - Aggressive</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Krik</t>
   </si>
 </sst>
 </file>
@@ -850,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S79" sqref="S79"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,51 +896,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -930,52 +960,55 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1">
         <v>44438</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>20</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1</v>
       </c>
       <c r="Z2" s="5" t="s">
@@ -992,52 +1025,55 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="1">
         <v>44438</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>28</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>20</v>
       </c>
       <c r="Z3" s="6" t="s">
@@ -1054,24 +1090,22 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>44440</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>29</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
@@ -1082,12 +1116,15 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
     </row>
@@ -1101,36 +1138,36 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="1">
         <v>44440</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>20</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -1138,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
     </row>
@@ -1151,24 +1191,24 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="3">
         <v>44440</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -1179,12 +1219,15 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
     </row>
@@ -1198,24 +1241,24 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3">
         <v>44440</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -1226,12 +1269,15 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
@@ -1245,21 +1291,21 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3">
         <v>44440</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>30</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -1270,12 +1316,15 @@
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>2</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>
@@ -1289,40 +1338,43 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1">
         <v>44441</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
     </row>
@@ -1336,24 +1388,24 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="1">
         <v>44441</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>22</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -1370,6 +1422,9 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>8</v>
       </c>
     </row>
@@ -1383,36 +1438,36 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1">
         <v>44442</v>
       </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>23</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1420,6 +1475,9 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
     </row>
@@ -1433,43 +1491,44 @@
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>44442</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" t="s">
         <v>51</v>
       </c>
       <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>33</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>
@@ -1483,43 +1542,44 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>44446</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>32</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>15</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
     </row>
@@ -1533,36 +1593,34 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>44446</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -1570,6 +1628,9 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>0</v>
       </c>
     </row>
@@ -1583,24 +1644,24 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3">
         <v>44446</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
         <v>60</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
@@ -1611,12 +1672,15 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1694,24 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3">
         <v>44446</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>30</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
@@ -1658,16 +1722,19 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1677,21 +1744,21 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="3">
         <v>44446</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>30</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
@@ -1702,16 +1769,19 @@
         <v>0</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
@@ -1721,44 +1791,45 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>44447</v>
       </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>22</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
         <v>8</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
@@ -1768,27 +1839,27 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="3">
         <v>44447</v>
       </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
       <c r="F19" t="s">
         <v>51</v>
       </c>
       <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
         <v>63</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>30</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -1807,8 +1878,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>67</v>
       </c>
@@ -1818,38 +1892,38 @@
       <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="3">
         <v>44448</v>
       </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" t="s">
         <v>51</v>
       </c>
       <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
         <v>66</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>25</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>5</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1857,8 +1931,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
@@ -1868,24 +1945,24 @@
       <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="3">
         <v>44448</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
         <v>68</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>47</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>30</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -1904,8 +1981,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>69</v>
       </c>
@@ -1915,27 +1995,27 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="3">
         <v>44449</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" t="s">
         <v>51</v>
       </c>
       <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>41</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>24</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -1946,19 +2026,22 @@
         <v>0</v>
       </c>
       <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
@@ -1968,21 +2051,21 @@
       <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1">
         <v>44449</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>47</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>24</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -1993,16 +2076,19 @@
         <v>0</v>
       </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>26</v>
       </c>
@@ -2012,36 +2098,36 @@
       <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="3">
         <v>44453</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
         <v>31</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>32</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>26</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>4</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>0</v>
       </c>
@@ -2051,8 +2137,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
@@ -2062,47 +2151,48 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>44453</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
       <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>33</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>21</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>9</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>48</v>
       </c>
@@ -2112,24 +2202,24 @@
       <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="1">
         <v>44454</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
         <v>52</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>41</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>30</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
@@ -2159,24 +2252,24 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="1">
         <v>44454</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
         <v>40</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>41</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>28</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
@@ -2206,44 +2302,47 @@
       <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1">
         <v>44455</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
         <v>68</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>33</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>18</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>10</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>78</v>
       </c>
@@ -2253,41 +2352,44 @@
       <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="1">
         <v>44455</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>68</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>3</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
@@ -2297,35 +2399,35 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1">
         <v>44456</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>41</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>29</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2336,8 +2438,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>80</v>
       </c>
@@ -2347,36 +2452,36 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="1">
         <v>44456</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" t="s">
         <v>51</v>
       </c>
       <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
         <v>31</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>33</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>25</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
         <v>0</v>
       </c>
@@ -2386,8 +2491,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>80</v>
       </c>
@@ -2397,33 +2505,33 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="1">
         <v>44459</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
         <v>81</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>41</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>28</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>2</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
         <v>0</v>
       </c>
@@ -2433,8 +2541,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
@@ -2444,33 +2555,33 @@
       <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1">
         <v>44459</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>41</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>22</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>8</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="O33">
         <v>0</v>
       </c>
@@ -2480,8 +2591,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>67</v>
       </c>
@@ -2491,24 +2605,24 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="1">
         <v>44460</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
         <v>66</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>47</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>20</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
         <v>0</v>
       </c>
@@ -2525,10 +2639,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>64</v>
       </c>
@@ -2538,24 +2655,24 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1">
         <v>44460</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
         <v>68</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>41</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>30</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
@@ -2574,8 +2691,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>78</v>
       </c>
@@ -2585,44 +2705,47 @@
       <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="1">
         <v>44460</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
         <v>68</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>32</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>26</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>4</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>3</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>36</v>
       </c>
@@ -2632,44 +2755,47 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="1">
         <v>44460</v>
       </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
         <v>68</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>47</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>20</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
       </c>
       <c r="L37">
         <v>2</v>
       </c>
       <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
         <v>10</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>3</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>61</v>
       </c>
@@ -2679,47 +2805,48 @@
       <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
         <v>44462</v>
       </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
       <c r="F38" t="s">
         <v>51</v>
       </c>
       <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
         <v>60</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>32</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>21</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>9</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>69</v>
       </c>
@@ -2729,47 +2856,50 @@
       <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="1">
         <v>44462</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
       <c r="F39" t="s">
         <v>51</v>
       </c>
       <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
         <v>60</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>33</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>27</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>2</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
       <c r="Q39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2779,41 +2909,44 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="1">
         <v>44462</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>60</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>33</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>27</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <v>3</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>2</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
       <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
@@ -2823,24 +2956,24 @@
       <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="1">
         <v>44462</v>
       </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
         <v>60</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>41</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>30</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -2859,8 +2992,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>43</v>
       </c>
@@ -2870,24 +3006,24 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1">
         <v>44462</v>
       </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s">
         <v>60</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>41</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>28</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2898,16 +3034,19 @@
         <v>0</v>
       </c>
       <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>2</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>44</v>
       </c>
@@ -2917,21 +3056,21 @@
       <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="1">
         <v>44462</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>60</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>41</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>28</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -2942,16 +3081,19 @@
         <v>0</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>2</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>85</v>
       </c>
@@ -2961,21 +3103,19 @@
       <c r="C44" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
         <v>44467</v>
       </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s">
         <v>87</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>41</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
         <v>0</v>
       </c>
@@ -2983,11 +3123,11 @@
         <v>0</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <v>5</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>0</v>
       </c>
@@ -2997,8 +3137,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>62</v>
       </c>
@@ -3008,21 +3151,21 @@
       <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="1">
         <v>44467</v>
       </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
         <v>87</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>41</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>0</v>
       </c>
@@ -3030,11 +3173,11 @@
         <v>0</v>
       </c>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>15</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
       <c r="O45">
         <v>0</v>
       </c>
@@ -3044,9 +3187,12 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -3055,45 +3201,48 @@
       <c r="C46" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="1">
         <v>44468</v>
       </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s">
         <v>90</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>47</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>25</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>5</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
       <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <v>2</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -3102,44 +3251,47 @@
       <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="1">
         <v>44468</v>
       </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s">
         <v>90</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>41</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>25</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>2</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>80</v>
       </c>
@@ -3149,36 +3301,36 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="1">
         <v>44469</v>
       </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s">
         <v>93</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>33</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>26</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
       <c r="O48">
         <v>0</v>
       </c>
@@ -3188,8 +3340,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>91</v>
       </c>
@@ -3199,33 +3354,33 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="1">
         <v>44469</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s">
         <v>87</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>47</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>2</v>
       </c>
       <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
         <v>11</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
       <c r="O49">
         <v>0</v>
       </c>
@@ -3235,8 +3390,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>92</v>
       </c>
@@ -3246,36 +3404,36 @@
       <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="1">
         <v>44469</v>
       </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
       <c r="F50" t="s">
         <v>51</v>
       </c>
       <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
         <v>31</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>32</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>23</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <v>7</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
       <c r="O50">
         <v>0</v>
       </c>
@@ -3285,8 +3443,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>91</v>
       </c>
@@ -3296,35 +3457,35 @@
       <c r="C51" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="1">
         <v>44469</v>
       </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s">
         <v>87</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>47</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>15</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3332,11 +3493,14 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="T51" t="s">
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>62</v>
       </c>
@@ -3346,27 +3510,27 @@
       <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="1">
         <v>44476</v>
       </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
       <c r="F52" t="s">
         <v>51</v>
       </c>
       <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
         <v>81</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>47</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>30</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
       <c r="L52">
         <v>0</v>
       </c>
@@ -3385,8 +3549,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>97</v>
       </c>
@@ -3396,36 +3563,34 @@
       <c r="C53" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
         <v>44476</v>
       </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
       <c r="F53" t="s">
         <v>51</v>
       </c>
       <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
         <v>81</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>33</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>28</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>2</v>
       </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
       <c r="O53">
         <v>0</v>
       </c>
@@ -3435,8 +3600,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
@@ -3446,41 +3614,44 @@
       <c r="C54" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="1">
         <v>44476</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>100</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>47</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>27</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>2</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>49</v>
       </c>
@@ -3490,30 +3661,30 @@
       <c r="C55" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1">
         <v>44476</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>40</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>41</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>25</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
       <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
         <v>5</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
       <c r="O55">
         <v>0</v>
       </c>
@@ -3523,8 +3694,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>72</v>
       </c>
@@ -3534,38 +3708,36 @@
       <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
         <v>44477</v>
       </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
       <c r="F56" t="s">
         <v>51</v>
       </c>
       <c r="G56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" t="s">
         <v>31</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>22</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
         <v>8</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3573,8 +3745,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>53</v>
       </c>
@@ -3584,47 +3759,48 @@
       <c r="C57" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
         <v>44477</v>
       </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
       <c r="F57" t="s">
         <v>51</v>
       </c>
       <c r="G57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" t="s">
         <v>31</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>33</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>20</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
         <v>10</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>35</v>
       </c>
@@ -3634,24 +3810,22 @@
       <c r="C58" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>44480</v>
       </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
         <v>39</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>41</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>20</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
       <c r="L58">
         <v>0</v>
       </c>
@@ -3668,10 +3842,13 @@
         <v>0</v>
       </c>
       <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>101</v>
       </c>
@@ -3681,44 +3858,45 @@
       <c r="C59" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
         <v>44480</v>
       </c>
-      <c r="E59" t="s">
-        <v>51</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" t="s">
         <v>40</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>32</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>26</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>4</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>91</v>
       </c>
@@ -3728,18 +3906,18 @@
       <c r="C60" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="1">
         <v>44481</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>87</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>33</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0</v>
       </c>
@@ -3747,11 +3925,11 @@
         <v>0</v>
       </c>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>30</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
       <c r="O60">
         <v>0</v>
       </c>
@@ -3761,8 +3939,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>103</v>
       </c>
@@ -3772,32 +3953,30 @@
       <c r="C61" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>44481</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>39</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>33</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>22</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>8</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3805,8 +3984,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>104</v>
       </c>
@@ -3816,32 +3998,30 @@
       <c r="C62" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>44487</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>87</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>41</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>15</v>
       </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3849,8 +4029,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>105</v>
       </c>
@@ -3860,30 +4043,28 @@
       <c r="C63" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>44487</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>87</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>41</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
         <v>9</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
       <c r="O63">
         <v>0</v>
       </c>
@@ -3893,8 +4074,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>67</v>
       </c>
@@ -3904,44 +4088,47 @@
       <c r="C64" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="1">
         <v>44488</v>
       </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" t="s">
         <v>66</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>41</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>23</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>7</v>
       </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
@@ -3951,24 +4138,24 @@
       <c r="C65" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="1">
         <v>44488</v>
       </c>
-      <c r="E65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
         <v>68</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>47</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>30</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
       <c r="L65">
         <v>0</v>
       </c>
@@ -3987,8 +4174,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>88</v>
       </c>
@@ -3998,44 +4188,47 @@
       <c r="C66" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="1">
         <v>44489</v>
       </c>
-      <c r="E66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" t="s">
         <v>90</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>33</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>23</v>
-      </c>
-      <c r="K66">
-        <v>2</v>
       </c>
       <c r="L66">
         <v>2</v>
       </c>
       <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
         <v>7</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>3</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
       <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
         <v>2</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>89</v>
       </c>
@@ -4045,44 +4238,47 @@
       <c r="C67" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="1">
         <v>44489</v>
       </c>
-      <c r="E67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" t="s">
         <v>90</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>33</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>23</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
       </c>
       <c r="L67">
         <v>3</v>
       </c>
       <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
         <v>7</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>4</v>
       </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
       <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
         <v>2</v>
       </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>88</v>
       </c>
@@ -4092,41 +4288,44 @@
       <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="1">
         <v>44493</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>90</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>41</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>21</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
       </c>
       <c r="L68">
         <v>2</v>
       </c>
       <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
         <v>9</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>2</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>3</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>89</v>
       </c>
@@ -4136,41 +4335,44 @@
       <c r="C69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="1">
         <v>44493</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>90</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>41</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>21</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>4</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>9</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
       <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>3</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>64</v>
       </c>
@@ -4180,21 +4382,21 @@
       <c r="C70" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="1">
         <v>44493</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>68</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>41</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>30</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
       <c r="L70">
         <v>0</v>
       </c>
@@ -4213,8 +4415,11 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>67</v>
       </c>
@@ -4224,41 +4429,44 @@
       <c r="C71" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="1">
         <v>44493</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>66</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>41</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>26</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>4</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>114</v>
       </c>
@@ -4268,32 +4476,30 @@
       <c r="C72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
         <v>44496</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>116</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>33</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>2</v>
       </c>
       <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
         <v>30</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4301,8 +4507,11 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>115</v>
       </c>
@@ -4312,18 +4521,16 @@
       <c r="C73" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
         <v>44496</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>116</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>41</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0</v>
       </c>
@@ -4331,11 +4538,11 @@
         <v>0</v>
       </c>
       <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>15</v>
       </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
       <c r="O73">
         <v>0</v>
       </c>
@@ -4345,8 +4552,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>67</v>
       </c>
@@ -4356,41 +4566,44 @@
       <c r="C74" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="1">
         <v>44497</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>66</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>47</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>25</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>5</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>2</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>64</v>
       </c>
@@ -4400,21 +4613,21 @@
       <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="1">
         <v>44497</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>68</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>41</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>30</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
       <c r="L75">
         <v>0</v>
       </c>
@@ -4433,8 +4646,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>118</v>
       </c>
@@ -4444,41 +4660,42 @@
       <c r="C76" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
         <v>44498</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>66</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>33</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>15</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
         <v>15</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>4</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>119</v>
       </c>
@@ -4488,41 +4705,42 @@
       <c r="C77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
         <v>44498</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>68</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>32</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>22</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
       <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>8</v>
       </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
       <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
         <v>2</v>
       </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
       <c r="Q77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>120</v>
       </c>
@@ -4532,37 +4750,223 @@
       <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
         <v>44498</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>68</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>32</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>24</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
       </c>
       <c r="L78">
         <v>2</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
         <v>6</v>
       </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
       <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>2</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
       <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44502</v>
+      </c>
+      <c r="H79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44502</v>
+      </c>
+      <c r="H80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44502</v>
+      </c>
+      <c r="H81" t="s">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44502</v>
+      </c>
+      <c r="H82" t="s">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>12</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
         <v>0</v>
       </c>
     </row>
@@ -4573,15 +4977,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A0AF7-557A-1341-8E7B-0B9753A962C9}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4609,11 +5013,8 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4641,11 +5042,8 @@
       <c r="J2" t="s">
         <v>112</v>
       </c>
-      <c r="P2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4671,13 +5069,10 @@
         <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4700,16 +5095,13 @@
         <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
         <v>112</v>
       </c>
-      <c r="P4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4735,13 +5127,10 @@
         <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4770,7 +5159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -4799,7 +5188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -4822,13 +5211,13 @@
         <v>110</v>
       </c>
       <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
         <v>123</v>
       </c>
-      <c r="J8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4857,7 +5246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4886,7 +5275,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4909,13 +5298,13 @@
         <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4938,13 +5327,13 @@
         <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -4973,7 +5362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5002,7 +5391,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5028,10 +5417,10 @@
         <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -5057,7 +5446,94 @@
         <v>111</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5067B0B-5CFC-134C-A609-B9D2420A5B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD468E9D-425C-4A46-9971-FE437D1594FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="126">
   <si>
     <t>Horse</t>
   </si>
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Totalpositivesigns</t>
+  </si>
+  <si>
+    <t>Totalnegativesigns</t>
+  </si>
+  <si>
+    <t>Huntfield</t>
   </si>
 </sst>
 </file>
@@ -834,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,10 +908,10 @@
         <v>101</v>
       </c>
       <c r="T1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="V1" t="s">
         <v>15</v>
@@ -929,13 +938,13 @@
         <v>44438</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -995,13 +1004,13 @@
         <v>44438</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1061,10 +1070,10 @@
         <v>44440</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1126,10 +1135,10 @@
         <v>44440</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -1191,10 +1200,10 @@
         <v>44440</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -1256,7 +1265,7 @@
         <v>44440</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -1448,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1510,10 +1519,10 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1577,10 +1586,10 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1641,7 +1650,7 @@
         <v>44446</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -1909,7 +1918,7 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
@@ -1973,7 +1982,7 @@
         <v>44449</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2043,7 +2052,7 @@
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
@@ -2369,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -2436,7 +2445,7 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -2500,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -2564,7 +2573,7 @@
         <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
@@ -2896,7 +2905,7 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -2960,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -3027,7 +3036,7 @@
         <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
@@ -3094,7 +3103,7 @@
         <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
@@ -3158,7 +3167,7 @@
         <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -3222,7 +3231,7 @@
         <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
@@ -3289,7 +3298,7 @@
         <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s">
         <v>25</v>
@@ -3356,7 +3365,7 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
@@ -3487,7 +3496,7 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
@@ -3554,7 +3563,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -3618,7 +3627,7 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
@@ -3685,7 +3694,7 @@
         <v>28</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s">
         <v>25</v>
@@ -3746,7 +3755,7 @@
         <v>44476</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
         <v>25</v>
@@ -3868,7 +3877,7 @@
         <v>44481</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s">
         <v>14</v>
@@ -4063,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s">
         <v>14</v>
@@ -4130,7 +4139,7 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s">
         <v>14</v>
@@ -4194,7 +4203,7 @@
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
@@ -4258,7 +4267,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
@@ -4563,7 +4572,7 @@
         <v>44502</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
@@ -4624,7 +4633,7 @@
         <v>44502</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s">
         <v>20</v>
@@ -4685,7 +4694,7 @@
         <v>44502</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD468E9D-425C-4A46-9971-FE437D1594FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC59E34-4175-B54A-ACA2-9616B1C431CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,10 +974,12 @@
         <v>0</v>
       </c>
       <c r="T2">
+        <f>SUM(L2,Q2,S2)</f>
         <v>20</v>
       </c>
       <c r="U2">
-        <v>19</v>
+        <f>SUM(M2,N2,O2,P2,R2)</f>
+        <v>15</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -1040,10 +1042,12 @@
         <v>0</v>
       </c>
       <c r="T3">
+        <f t="shared" ref="T3:T11" si="0">SUM(L3,Q3,S3)</f>
         <v>28</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <f t="shared" ref="U3:U60" si="1">SUM(M3,N3,O3,P3,R3)</f>
+        <v>6</v>
       </c>
       <c r="V3">
         <v>20</v>
@@ -1106,9 +1110,11 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="U4">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="V4">
@@ -1171,9 +1177,11 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="U5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5">
@@ -1236,9 +1244,11 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="U6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V6">
@@ -1298,9 +1308,11 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="U7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V7">
@@ -1360,9 +1372,11 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="U8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V8">
@@ -1422,9 +1436,11 @@
         <v>8</v>
       </c>
       <c r="T9">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="U9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V9">
@@ -1487,10 +1503,12 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U10">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>12</v>
@@ -1552,12 +1570,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUM(K11,P11,R11)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="U11">
-        <f>SUM(L11,M11,N11,O11,Q11)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>30</v>
@@ -1619,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T58" si="0">SUM(K12,P12,R12)</f>
-        <v>0</v>
+        <f>SUM(L12,Q12,S12)</f>
+        <v>31</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12:U58" si="1">SUM(L12,M12,N12,O12,Q12)</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>29</v>
@@ -1683,12 +1701,12 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="T13:T60" si="2">SUM(L13,Q13,S13)</f>
+        <v>33</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>29</v>
@@ -1750,12 +1768,12 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>32</v>
@@ -1817,12 +1835,12 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <v>23</v>
@@ -1881,12 +1899,12 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>32</v>
@@ -1951,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>33</v>
@@ -2015,12 +2033,12 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>31</v>
@@ -2082,12 +2100,12 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="V19">
         <v>18</v>
@@ -2146,12 +2164,12 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>34</v>
@@ -2210,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>32</v>
@@ -2277,12 +2295,12 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V22">
         <v>-4</v>
@@ -2341,12 +2359,12 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <v>19</v>
@@ -2408,12 +2426,12 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>32</v>
@@ -2475,12 +2493,12 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="V25">
         <v>16</v>
@@ -2539,12 +2557,12 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="V26">
         <v>28</v>
@@ -2603,12 +2621,12 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V27">
         <v>18</v>
@@ -2667,12 +2685,12 @@
         <v>10</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>32</v>
@@ -2731,12 +2749,12 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>34</v>
@@ -2798,12 +2816,12 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="V30">
         <v>15</v>
@@ -2865,12 +2883,12 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -2935,12 +2953,12 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="V32">
         <v>23</v>
@@ -2999,12 +3017,12 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="V33">
         <v>23</v>
@@ -3066,12 +3084,12 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>34</v>
@@ -3133,12 +3151,12 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -3197,12 +3215,12 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>34</v>
@@ -3261,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U37">
@@ -3328,12 +3346,12 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="V38">
         <v>21</v>
@@ -3395,12 +3413,12 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="V39">
         <v>20</v>
@@ -3462,12 +3480,12 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="V40">
         <v>19</v>
@@ -3526,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U41">
@@ -3593,12 +3611,12 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="V42">
         <v>12</v>
@@ -3657,12 +3675,12 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V43">
         <v>-16</v>
@@ -3724,12 +3742,12 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>32</v>
@@ -3785,12 +3803,12 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="U45">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="V45">
         <v>23</v>
@@ -3846,12 +3864,12 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="V46">
         <v>21</v>
@@ -3907,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47">
@@ -3971,12 +3989,12 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="U48">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V48">
         <v>19</v>
@@ -4035,12 +4053,12 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U49">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <v>32</v>
@@ -4102,12 +4120,12 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="U50">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="V50">
         <v>6</v>
@@ -4169,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="U51">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V51">
         <v>3</v>
@@ -4233,12 +4251,12 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="U52">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="V52">
         <v>7</v>
@@ -4297,12 +4315,12 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="U53">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="V53">
         <v>4</v>
@@ -4358,12 +4376,12 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U54">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>34</v>
@@ -4419,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="U55">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V55">
         <v>24</v>
@@ -4480,12 +4498,12 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="U56">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="V56">
         <v>20</v>
@@ -4541,12 +4559,12 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="U57">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>34</v>
@@ -4602,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U58">
@@ -4663,12 +4681,12 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="shared" ref="T59:T60" si="2">SUM(K59,P59,R59)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U59">
-        <f t="shared" ref="U59:U60" si="3">SUM(L59,M59,N59,O59,Q59)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4728,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V60">

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Fall 2021/SYE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Spring 2022/SYE/SYE_spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC59E34-4175-B54A-ACA2-9616B1C431CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65AA3-1041-CB47-8465-97833A80949F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="144">
   <si>
     <t>Horse</t>
   </si>
@@ -414,6 +414,60 @@
   </si>
   <si>
     <t>Huntfield</t>
+  </si>
+  <si>
+    <t>A.M./P.M.</t>
+  </si>
+  <si>
+    <t>10-10:30</t>
+  </si>
+  <si>
+    <t>a.m.</t>
+  </si>
+  <si>
+    <t>11:30-12</t>
+  </si>
+  <si>
+    <t>7:30-8</t>
+  </si>
+  <si>
+    <t>p.m.</t>
+  </si>
+  <si>
+    <t>7-7:30</t>
+  </si>
+  <si>
+    <t>11-11:30</t>
+  </si>
+  <si>
+    <t>9-9:30</t>
+  </si>
+  <si>
+    <t>10:30-11</t>
+  </si>
+  <si>
+    <t>9:30-10</t>
+  </si>
+  <si>
+    <t>6:30-7</t>
+  </si>
+  <si>
+    <t>12-12:30</t>
+  </si>
+  <si>
+    <t>5:30-6</t>
+  </si>
+  <si>
+    <t>1-1:30</t>
+  </si>
+  <si>
+    <t>1:30-2</t>
+  </si>
+  <si>
+    <t>2-2:30</t>
+  </si>
+  <si>
+    <t>3-3:30</t>
   </si>
 </sst>
 </file>
@@ -843,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="Q42" workbookViewId="0">
+      <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,6 +970,9 @@
       <c r="V1" t="s">
         <v>15</v>
       </c>
+      <c r="W1" t="s">
+        <v>126</v>
+      </c>
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -926,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D2" s="12">
         <v>24</v>
@@ -984,6 +1041,9 @@
       <c r="V2">
         <v>1</v>
       </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
       <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -994,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D3" s="12">
         <v>12</v>
@@ -1052,6 +1112,9 @@
       <c r="V3">
         <v>20</v>
       </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
       <c r="AA3" s="15"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -1062,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D4" s="12">
         <v>5</v>
@@ -1120,6 +1183,9 @@
       <c r="V4">
         <v>10</v>
       </c>
+      <c r="W4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1129,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D5" s="12">
         <v>9</v>
@@ -1187,6 +1253,9 @@
       <c r="V5">
         <v>34</v>
       </c>
+      <c r="W5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1196,7 +1265,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D6" s="12">
         <v>12</v>
@@ -1254,6 +1323,9 @@
       <c r="V6">
         <v>34</v>
       </c>
+      <c r="W6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -1263,7 +1335,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D7" s="12">
         <v>25</v>
@@ -1318,6 +1390,9 @@
       <c r="V7">
         <v>33</v>
       </c>
+      <c r="W7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1327,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D8" s="12">
         <v>17</v>
@@ -1381,6 +1456,9 @@
       </c>
       <c r="V8">
         <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -1391,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12">
         <v>10</v>
@@ -1445,6 +1523,9 @@
       </c>
       <c r="V9">
         <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -1455,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D10" s="12">
         <v>24</v>
@@ -1513,6 +1594,9 @@
       <c r="V10">
         <v>12</v>
       </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -1522,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D11" s="12">
         <v>9</v>
@@ -1580,6 +1664,9 @@
       <c r="V11">
         <v>30</v>
       </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -1589,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D12" s="12">
         <v>12</v>
@@ -1647,6 +1734,9 @@
       <c r="V12">
         <v>29</v>
       </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -1656,7 +1746,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D13" s="12">
         <v>25</v>
@@ -1711,6 +1801,9 @@
       <c r="V13">
         <v>29</v>
       </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1720,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D14" s="12">
         <v>22</v>
@@ -1777,6 +1870,9 @@
       </c>
       <c r="V14">
         <v>32</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1787,7 +1883,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D15" s="12">
         <v>24</v>
@@ -1845,6 +1941,9 @@
       <c r="V15">
         <v>23</v>
       </c>
+      <c r="W15" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1854,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D16" s="12">
         <v>18</v>
@@ -1909,8 +2008,11 @@
       <c r="V16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +2020,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D17" s="12">
         <v>22</v>
@@ -1979,8 +2081,11 @@
       <c r="V17">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +2093,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D18" s="12">
         <v>28</v>
@@ -2043,8 +2148,11 @@
       <c r="V18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D19" s="12">
         <v>24</v>
@@ -2110,8 +2218,11 @@
       <c r="V19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -2119,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D20" s="12">
         <v>17</v>
@@ -2174,8 +2285,11 @@
       <c r="V20">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -2183,7 +2297,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D21" s="12">
         <v>10</v>
@@ -2238,8 +2352,11 @@
       <c r="V21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
@@ -2247,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -2305,8 +2422,11 @@
       <c r="V22">
         <v>-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -2314,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D23" s="12">
         <v>12</v>
@@ -2369,8 +2489,11 @@
       <c r="V23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +2501,7 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2436,8 +2559,11 @@
       <c r="V24">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -2445,7 +2571,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D25" s="12">
         <v>19</v>
@@ -2503,8 +2629,11 @@
       <c r="V25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
@@ -2512,7 +2641,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D26" s="12">
         <v>19</v>
@@ -2567,8 +2696,11 @@
       <c r="V26">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D27" s="12">
         <v>12</v>
@@ -2631,8 +2763,11 @@
       <c r="V27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -2640,7 +2775,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D28" s="12">
         <v>24</v>
@@ -2695,8 +2830,11 @@
       <c r="V28">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
@@ -2704,7 +2842,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D29" s="12">
         <v>18</v>
@@ -2759,8 +2897,11 @@
       <c r="V29">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D30" s="12">
         <v>12</v>
@@ -2826,8 +2967,11 @@
       <c r="V30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>17</v>
       </c>
@@ -2835,7 +2979,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D31" s="12">
         <v>5</v>
@@ -2893,8 +3037,11 @@
       <c r="V31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
@@ -2902,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D32" s="12">
         <v>22</v>
@@ -2963,8 +3110,11 @@
       <c r="V32">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
@@ -2972,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D33" s="12">
         <v>28</v>
@@ -3027,8 +3177,11 @@
       <c r="V33">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
@@ -3036,7 +3189,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D34" s="12">
         <v>9</v>
@@ -3094,8 +3247,11 @@
       <c r="V34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
@@ -3103,7 +3259,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D35" s="12">
         <v>12</v>
@@ -3161,8 +3317,11 @@
       <c r="V35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D36" s="12">
         <v>25</v>
@@ -3225,8 +3384,11 @@
       <c r="V36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3396,7 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D37" s="12">
         <v>22</v>
@@ -3289,8 +3451,11 @@
       <c r="V37">
         <v>-11</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>49</v>
       </c>
@@ -3298,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D38" s="12">
         <v>15</v>
@@ -3356,8 +3521,11 @@
       <c r="V38">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>50</v>
       </c>
@@ -3365,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D39" s="12">
         <v>14</v>
@@ -3423,8 +3591,11 @@
       <c r="V39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D40" s="12">
         <v>19</v>
@@ -3490,8 +3661,11 @@
       <c r="V40">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
@@ -3499,7 +3673,7 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D41" s="12">
         <v>18</v>
@@ -3554,8 +3728,11 @@
       <c r="V41">
         <v>-13</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
@@ -3563,7 +3740,7 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D42" s="12">
         <v>19</v>
@@ -3621,8 +3798,11 @@
       <c r="V42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>52</v>
       </c>
@@ -3630,7 +3810,7 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D43" s="12">
         <v>18</v>
@@ -3685,8 +3865,11 @@
       <c r="V43">
         <v>-16</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>35</v>
       </c>
@@ -3694,7 +3877,7 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D44" s="12">
         <v>22</v>
@@ -3752,8 +3935,11 @@
       <c r="V44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
@@ -3761,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D45" s="12">
         <v>17</v>
@@ -3813,8 +3999,11 @@
       <c r="V45">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -3822,7 +4011,7 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D46" s="12">
         <v>10</v>
@@ -3874,8 +4063,11 @@
       <c r="V46">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>52</v>
       </c>
@@ -3883,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D47" s="12">
         <v>18</v>
@@ -3935,8 +4127,11 @@
       <c r="V47">
         <v>-32</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>39</v>
       </c>
@@ -3944,7 +4139,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D48" s="12">
         <v>24</v>
@@ -3999,8 +4194,11 @@
       <c r="V48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>37</v>
       </c>
@@ -4008,7 +4206,7 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D49" s="12">
         <v>18</v>
@@ -4063,8 +4261,11 @@
       <c r="V49">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -4072,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D50" s="12">
         <v>15</v>
@@ -4130,8 +4331,11 @@
       <c r="V50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
@@ -4139,7 +4343,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D51" s="12">
         <v>14</v>
@@ -4197,8 +4401,11 @@
       <c r="V51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>49</v>
       </c>
@@ -4206,7 +4413,7 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D52" s="12">
         <v>15</v>
@@ -4261,8 +4468,11 @@
       <c r="V52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>50</v>
       </c>
@@ -4270,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D53" s="12">
         <v>14</v>
@@ -4325,8 +4535,11 @@
       <c r="V53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>37</v>
       </c>
@@ -4334,7 +4547,7 @@
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D54" s="12">
         <v>18</v>
@@ -4386,8 +4599,11 @@
       <c r="V54">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>39</v>
       </c>
@@ -4395,7 +4611,7 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D55" s="12">
         <v>24</v>
@@ -4447,8 +4663,11 @@
       <c r="V55">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>39</v>
       </c>
@@ -4456,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D56" s="12">
         <v>24</v>
@@ -4508,8 +4727,11 @@
       <c r="V56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>37</v>
       </c>
@@ -4517,7 +4739,7 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D57" s="12">
         <v>18</v>
@@ -4569,8 +4791,11 @@
       <c r="V57">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>41</v>
       </c>
@@ -4578,7 +4803,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D58" s="12">
         <v>22</v>
@@ -4630,8 +4855,11 @@
       <c r="V58">
         <v>-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
@@ -4639,7 +4867,7 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D59" s="12">
         <v>28</v>
@@ -4691,8 +4919,11 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>44</v>
       </c>
@@ -4700,7 +4931,7 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D60" s="12">
         <v>12</v>
@@ -4751,6 +4982,9 @@
       </c>
       <c r="V60">
         <v>-4</v>
+      </c>
+      <c r="W60" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/SYE data sheet.xlsx
+++ b/SYE data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claramugnai/Desktop/Spring 2022/SYE/SYE_spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65AA3-1041-CB47-8465-97833A80949F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE23680-2F56-E841-8036-7E0BA73A2CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6BEEF0CC-3BFA-F34B-B6A4-F2A8386DF928}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="128">
   <si>
     <t>Horse</t>
   </si>
@@ -416,65 +416,17 @@
     <t>Huntfield</t>
   </si>
   <si>
-    <t>A.M./P.M.</t>
-  </si>
-  <si>
-    <t>10-10:30</t>
-  </si>
-  <si>
-    <t>a.m.</t>
-  </si>
-  <si>
-    <t>11:30-12</t>
-  </si>
-  <si>
-    <t>7:30-8</t>
-  </si>
-  <si>
-    <t>p.m.</t>
-  </si>
-  <si>
-    <t>7-7:30</t>
-  </si>
-  <si>
-    <t>11-11:30</t>
-  </si>
-  <si>
-    <t>9-9:30</t>
-  </si>
-  <si>
-    <t>10:30-11</t>
-  </si>
-  <si>
-    <t>9:30-10</t>
-  </si>
-  <si>
-    <t>6:30-7</t>
-  </si>
-  <si>
-    <t>12-12:30</t>
-  </si>
-  <si>
-    <t>5:30-6</t>
-  </si>
-  <si>
-    <t>1-1:30</t>
-  </si>
-  <si>
-    <t>1:30-2</t>
-  </si>
-  <si>
-    <t>2-2:30</t>
-  </si>
-  <si>
-    <t>3-3:30</t>
+    <t>Start_time</t>
+  </si>
+  <si>
+    <t>End_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +458,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,13 +515,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -578,10 +539,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -895,23 +858,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BFC5D-9962-BA42-A40D-DF7A3C038E19}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q42" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -970,20 +933,17 @@
       <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" s="13"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
+      <c r="B2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.4375</v>
       </c>
       <c r="D2" s="12">
         <v>24</v>
@@ -1041,20 +1001,17 @@
       <c r="V2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
+      <c r="B3" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.4375</v>
       </c>
       <c r="D3" s="12">
         <v>12</v>
@@ -1112,20 +1069,17 @@
       <c r="V3">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
+      <c r="B4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
       </c>
       <c r="D4" s="12">
         <v>5</v>
@@ -1183,19 +1137,16 @@
       <c r="V4">
         <v>10</v>
       </c>
-      <c r="W4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
+      <c r="B5" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D5" s="12">
         <v>9</v>
@@ -1253,19 +1204,16 @@
       <c r="V5">
         <v>34</v>
       </c>
-      <c r="W5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
+      <c r="B6" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D6" s="12">
         <v>12</v>
@@ -1323,19 +1271,16 @@
       <c r="V6">
         <v>34</v>
       </c>
-      <c r="W6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
+      <c r="B7" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D7" s="12">
         <v>25</v>
@@ -1390,19 +1335,16 @@
       <c r="V7">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
+      <c r="B8" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.3125</v>
       </c>
       <c r="D8" s="12">
         <v>17</v>
@@ -1457,19 +1399,16 @@
       <c r="V8">
         <v>31</v>
       </c>
-      <c r="W8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
+      <c r="B9" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.3125</v>
       </c>
       <c r="D9" s="12">
         <v>10</v>
@@ -1524,19 +1463,16 @@
       <c r="V9">
         <v>34</v>
       </c>
-      <c r="W9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>133</v>
+      <c r="B10" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D10" s="12">
         <v>24</v>
@@ -1594,19 +1530,16 @@
       <c r="V10">
         <v>12</v>
       </c>
-      <c r="W10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
+      <c r="B11" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="12">
         <v>9</v>
@@ -1664,19 +1597,16 @@
       <c r="V11">
         <v>30</v>
       </c>
-      <c r="W11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
+      <c r="B12" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D12" s="12">
         <v>12</v>
@@ -1734,19 +1664,16 @@
       <c r="V12">
         <v>29</v>
       </c>
-      <c r="W12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
+      <c r="B13" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="12">
         <v>25</v>
@@ -1801,19 +1728,16 @@
       <c r="V13">
         <v>29</v>
       </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
+      <c r="B14" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.4375</v>
       </c>
       <c r="D14" s="12">
         <v>22</v>
@@ -1871,19 +1795,16 @@
       <c r="V14">
         <v>32</v>
       </c>
-      <c r="W14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
+      <c r="B15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D15" s="12">
         <v>24</v>
@@ -1941,19 +1862,16 @@
       <c r="V15">
         <v>23</v>
       </c>
-      <c r="W15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
+      <c r="B16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D16" s="12">
         <v>18</v>
@@ -2008,19 +1926,16 @@
       <c r="V16">
         <v>32</v>
       </c>
-      <c r="W16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>135</v>
+      <c r="B17" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D17" s="12">
         <v>22</v>
@@ -2081,19 +1996,16 @@
       <c r="V17">
         <v>33</v>
       </c>
-      <c r="W17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
+      <c r="B18" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D18" s="12">
         <v>28</v>
@@ -2148,19 +2060,16 @@
       <c r="V18">
         <v>31</v>
       </c>
-      <c r="W18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
+      <c r="B19" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="12">
         <v>24</v>
@@ -2218,19 +2127,16 @@
       <c r="V19">
         <v>18</v>
       </c>
-      <c r="W19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>137</v>
+      <c r="B20" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D20" s="12">
         <v>17</v>
@@ -2285,19 +2191,16 @@
       <c r="V20">
         <v>34</v>
       </c>
-      <c r="W20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
+      <c r="B21" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="12">
         <v>10</v>
@@ -2352,19 +2255,16 @@
       <c r="V21">
         <v>32</v>
       </c>
-      <c r="W21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
+      <c r="B22" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.3125</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -2422,19 +2322,16 @@
       <c r="V22">
         <v>-4</v>
       </c>
-      <c r="W22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
+      <c r="B23" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.3125</v>
       </c>
       <c r="D23" s="12">
         <v>12</v>
@@ -2489,19 +2386,16 @@
       <c r="V23">
         <v>19</v>
       </c>
-      <c r="W23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>129</v>
+      <c r="B24" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.5</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2559,19 +2453,16 @@
       <c r="V24">
         <v>32</v>
       </c>
-      <c r="W24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
+      <c r="B25" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.5</v>
       </c>
       <c r="D25" s="12">
         <v>19</v>
@@ -2629,19 +2520,16 @@
       <c r="V25">
         <v>16</v>
       </c>
-      <c r="W25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
+      <c r="B26" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.4375</v>
       </c>
       <c r="D26" s="12">
         <v>19</v>
@@ -2696,19 +2584,16 @@
       <c r="V26">
         <v>28</v>
       </c>
-      <c r="W26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
+      <c r="B27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.4375</v>
       </c>
       <c r="D27" s="12">
         <v>12</v>
@@ -2763,19 +2648,16 @@
       <c r="V27">
         <v>18</v>
       </c>
-      <c r="W27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
+      <c r="B28" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.5</v>
       </c>
       <c r="D28" s="12">
         <v>24</v>
@@ -2830,19 +2712,16 @@
       <c r="V28">
         <v>32</v>
       </c>
-      <c r="W28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
+      <c r="B29" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.5</v>
       </c>
       <c r="D29" s="12">
         <v>18</v>
@@ -2897,19 +2776,16 @@
       <c r="V29">
         <v>34</v>
       </c>
-      <c r="W29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
+      <c r="B30" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D30" s="12">
         <v>12</v>
@@ -2967,19 +2843,16 @@
       <c r="V30">
         <v>15</v>
       </c>
-      <c r="W30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
+      <c r="B31" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D31" s="12">
         <v>5</v>
@@ -3037,19 +2910,16 @@
       <c r="V31">
         <v>5</v>
       </c>
-      <c r="W31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
+      <c r="B32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.52083333333333337</v>
       </c>
       <c r="D32" s="12">
         <v>22</v>
@@ -3110,19 +2980,16 @@
       <c r="V32">
         <v>23</v>
       </c>
-      <c r="W32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
+      <c r="B33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.52083333333333337</v>
       </c>
       <c r="D33" s="12">
         <v>28</v>
@@ -3177,19 +3044,16 @@
       <c r="V33">
         <v>23</v>
       </c>
-      <c r="W33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
+      <c r="B34" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.75</v>
       </c>
       <c r="D34" s="12">
         <v>9</v>
@@ -3247,19 +3111,16 @@
       <c r="V34">
         <v>34</v>
       </c>
-      <c r="W34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B35">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
+      <c r="B35" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.75</v>
       </c>
       <c r="D35" s="12">
         <v>12</v>
@@ -3317,19 +3178,16 @@
       <c r="V35">
         <v>34</v>
       </c>
-      <c r="W35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
+      <c r="B36" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.75</v>
       </c>
       <c r="D36" s="12">
         <v>25</v>
@@ -3384,19 +3242,16 @@
       <c r="V36">
         <v>34</v>
       </c>
-      <c r="W36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>140</v>
+      <c r="B37" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5625</v>
       </c>
       <c r="D37" s="12">
         <v>22</v>
@@ -3451,19 +3306,16 @@
       <c r="V37">
         <v>-11</v>
       </c>
-      <c r="W37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B38">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
+      <c r="B38" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
       </c>
       <c r="D38" s="12">
         <v>15</v>
@@ -3521,19 +3373,16 @@
       <c r="V38">
         <v>21</v>
       </c>
-      <c r="W38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
+      <c r="B39" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.5</v>
       </c>
       <c r="D39" s="12">
         <v>14</v>
@@ -3591,19 +3440,16 @@
       <c r="V39">
         <v>20</v>
       </c>
-      <c r="W39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
+      <c r="B40" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D40" s="12">
         <v>19</v>
@@ -3661,19 +3507,16 @@
       <c r="V40">
         <v>19</v>
       </c>
-      <c r="W40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B41">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>141</v>
+      <c r="B41" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D41" s="12">
         <v>18</v>
@@ -3728,19 +3571,16 @@
       <c r="V41">
         <v>-13</v>
       </c>
-      <c r="W41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B42">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
+      <c r="B42" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D42" s="12">
         <v>19</v>
@@ -3798,19 +3638,16 @@
       <c r="V42">
         <v>12</v>
       </c>
-      <c r="W42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B43">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
+      <c r="B43" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D43" s="12">
         <v>18</v>
@@ -3865,19 +3702,16 @@
       <c r="V43">
         <v>-16</v>
       </c>
-      <c r="W43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B44">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>141</v>
+      <c r="B44" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D44" s="12">
         <v>22</v>
@@ -3935,19 +3769,16 @@
       <c r="V44">
         <v>32</v>
       </c>
-      <c r="W44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
+      <c r="B45" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D45" s="12">
         <v>17</v>
@@ -3999,19 +3830,16 @@
       <c r="V45">
         <v>23</v>
       </c>
-      <c r="W45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B46">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
+      <c r="B46" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D46" s="12">
         <v>10</v>
@@ -4063,19 +3891,16 @@
       <c r="V46">
         <v>21</v>
       </c>
-      <c r="W46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B47">
-        <v>30</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
+      <c r="B47" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D47" s="12">
         <v>18</v>
@@ -4127,19 +3952,16 @@
       <c r="V47">
         <v>-32</v>
       </c>
-      <c r="W47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B48">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
+      <c r="B48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.52083333333333337</v>
       </c>
       <c r="D48" s="12">
         <v>24</v>
@@ -4194,19 +4016,16 @@
       <c r="V48">
         <v>19</v>
       </c>
-      <c r="W48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B49">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
+      <c r="B49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.52083333333333337</v>
       </c>
       <c r="D49" s="12">
         <v>18</v>
@@ -4261,19 +4080,16 @@
       <c r="V49">
         <v>32</v>
       </c>
-      <c r="W49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>136</v>
+      <c r="B50" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D50" s="12">
         <v>15</v>
@@ -4331,19 +4147,16 @@
       <c r="V50">
         <v>6</v>
       </c>
-      <c r="W50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+      <c r="B51" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D51" s="12">
         <v>14</v>
@@ -4401,19 +4214,16 @@
       <c r="V51">
         <v>3</v>
       </c>
-      <c r="W51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B52">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>133</v>
+      <c r="B52" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D52" s="12">
         <v>15</v>
@@ -4468,19 +4278,16 @@
       <c r="V52">
         <v>7</v>
       </c>
-      <c r="W52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>133</v>
+      <c r="B53" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D53" s="12">
         <v>14</v>
@@ -4535,19 +4342,16 @@
       <c r="V53">
         <v>4</v>
       </c>
-      <c r="W53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B54">
-        <v>30</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
+      <c r="B54" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
       </c>
       <c r="D54" s="12">
         <v>18</v>
@@ -4599,19 +4403,16 @@
       <c r="V54">
         <v>34</v>
       </c>
-      <c r="W54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B55">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
+      <c r="B55" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.5</v>
       </c>
       <c r="D55" s="12">
         <v>24</v>
@@ -4663,19 +4464,16 @@
       <c r="V55">
         <v>24</v>
       </c>
-      <c r="W55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B56">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>143</v>
+      <c r="B56" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D56" s="12">
         <v>24</v>
@@ -4727,19 +4525,16 @@
       <c r="V56">
         <v>20</v>
       </c>
-      <c r="W56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>143</v>
+      <c r="B57" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D57" s="12">
         <v>18</v>
@@ -4791,19 +4586,16 @@
       <c r="V57">
         <v>34</v>
       </c>
-      <c r="W57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B58">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
+      <c r="B58" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D58" s="12">
         <v>22</v>
@@ -4855,19 +4647,16 @@
       <c r="V58">
         <v>-6</v>
       </c>
-      <c r="W58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B59">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>142</v>
+      <c r="B59" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D59" s="12">
         <v>28</v>
@@ -4919,19 +4708,16 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B60">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
+      <c r="B60" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D60" s="12">
         <v>12</v>
@@ -4983,11 +4769,11 @@
       <c r="V60">
         <v>-4</v>
       </c>
-      <c r="W60" t="s">
-        <v>131</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1" display="1@:00" xr:uid="{2FFE11B1-0A19-D248-8D25-9235E2171C3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
